--- a/biology/Botanique/Clinopodium/Clinopodium.xlsx
+++ b/biology/Botanique/Clinopodium/Clinopodium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clinopodium (les Clinopodes) est un genre de plantes à fleurs de la famille des Lamiaceae, situé sur tous les continents
 Des espèces du genre Clinopodium sont des plantes nourricières pour les larves de quelques lépidoptères tel que Coleophora albitarsella. Plusieurs espèces de Clinopodes sont aussi utilisées comme plantes médicinales. Clinopodium laevigatum est utilisé au Mexique sous le nom de Paleo ou yerba de borracho pour soigner la « gueule de bois »  et les maux d'estomac et de foie, ceci sous forme d'infusion.
@@ -512,35 +524,11 @@
           <t>Calaments</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mot « calament » est un emprunt au latin médiéval calamentum ou au bas latin calamintha, deux termes eux-mêmes issus du grec byzantin καλάμινθος (kaláminthos). Il désignait une plante médicinale à l'odeur agréable et aux propriétés stimulantes, utilisée notamment contre l'asthme et les ulcères du poumon[1]. Déjà cité par les auteurs antiques comme Dioscoride, le calament fait partie des traités de matière médicale et des herbiers médiévaux. Il est ensuite l'un des multiples constituants de la thériaque de la pharmacopée maritime occidentale au XVIIIe siècle [2].
-Liste des espèces appelées « calaments » en français
-Le calament historique faisait certainement allusion à plusieurs plantes distinctes. D'autres espèces proches ont par la suite été décrites avec un nom composé du terme « calament ». Elles font désormais toutes partie du genre Clinopodium.
-Calaments - historiquement le genre Calamintha[3]
-Calament - l'espèce Clinopodium menthifolium[3],[4], l'espèce Clinopodium nepeta[5],[6] et la sous-espèce Clinopodium vulgare subsp. arundanum[7].
-Calament à feuilles de menthe - Clinopodium nepeta subsp. sylvaticum[8]
-Calament à grandes fleurs - Clinopodium grandiflorum[3],[8],[7]
-Calament acinos - Clinopodium acinos[8],[7],[6],[4]
-Calament ascendent - Clinopodium nepeta subsp. ascendens[8], syn de Clinopodium menthifolium subsp. ascendens[9].
-Calament clinopode - Clinopodium vulgare subsp. vulgare[4]
-Calament d'Arkansas - Clinopodium arkansanum[4]
-Calament de Conill - Clinopodium nepeta nothosubsp. conillii[8]
-Calament de Corse - Clinopodium corsicum[7]
-Calament de montagne - Clinopodium menthifolium[3] ou au Canada Calamintha officinalis[6], syn. de Clinopodium nepeta
-Calament des Alpes - Clinopodium alpinum[8],[7]
-Calament des Pyrénées - Clinopodium alpinum subsp. pyrenaeum[7]
-Calament des bois - Clinopodium nepeta subsp. sylvaticum[8] et au Canada Clinopodium menthifolium[4] ou Clinopodium menthifolium subsp. menthifolium[4]
-Calament des champs - Clinopodium acinos[7]
-Calament du Midi - Clinopodium alpinum subsp. meridionale[7]
-Calament faux népéta - Clinopodium nepeta[3]
-Calament glabre - Clinopodium glabellum[4]
-Calament glanduleux - Clinopodium nepeta[3],[8]
-Calament mixte - Clinopodium × mixtum[8]
-Calament nepeta - Clinopodium nepeta[3]
-Calament officinal - Clinopodium menthifolium[3]
-Calament velu - Clinopodium acinos subsp. acinos[7]
-Petit calament - Clinopodium nepeta[3]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mot « calament » est un emprunt au latin médiéval calamentum ou au bas latin calamintha, deux termes eux-mêmes issus du grec byzantin καλάμινθος (kaláminthos). Il désignait une plante médicinale à l'odeur agréable et aux propriétés stimulantes, utilisée notamment contre l'asthme et les ulcères du poumon. Déjà cité par les auteurs antiques comme Dioscoride, le calament fait partie des traités de matière médicale et des herbiers médiévaux. Il est ensuite l'un des multiples constituants de la thériaque de la pharmacopée maritime occidentale au XVIIIe siècle .
 </t>
         </is>
       </c>
@@ -566,12 +554,75 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Calaments</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des espèces appelées « calaments » en français</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le calament historique faisait certainement allusion à plusieurs plantes distinctes. D'autres espèces proches ont par la suite été décrites avec un nom composé du terme « calament ». Elles font désormais toutes partie du genre Clinopodium.
+Calaments - historiquement le genre Calamintha
+Calament - l'espèce Clinopodium menthifolium l'espèce Clinopodium nepeta, et la sous-espèce Clinopodium vulgare subsp. arundanum.
+Calament à feuilles de menthe - Clinopodium nepeta subsp. sylvaticum
+Calament à grandes fleurs - Clinopodium grandiflorum
+Calament acinos - Clinopodium acinos
+Calament ascendent - Clinopodium nepeta subsp. ascendens, syn de Clinopodium menthifolium subsp. ascendens.
+Calament clinopode - Clinopodium vulgare subsp. vulgare
+Calament d'Arkansas - Clinopodium arkansanum
+Calament de Conill - Clinopodium nepeta nothosubsp. conillii
+Calament de Corse - Clinopodium corsicum
+Calament de montagne - Clinopodium menthifolium ou au Canada Calamintha officinalis, syn. de Clinopodium nepeta
+Calament des Alpes - Clinopodium alpinum,
+Calament des Pyrénées - Clinopodium alpinum subsp. pyrenaeum
+Calament des bois - Clinopodium nepeta subsp. sylvaticum et au Canada Clinopodium menthifolium ou Clinopodium menthifolium subsp. menthifolium
+Calament des champs - Clinopodium acinos
+Calament du Midi - Clinopodium alpinum subsp. meridionale
+Calament faux népéta - Clinopodium nepeta
+Calament glabre - Clinopodium glabellum
+Calament glanduleux - Clinopodium nepeta,
+Calament mixte - Clinopodium × mixtum
+Calament nepeta - Clinopodium nepeta
+Calament officinal - Clinopodium menthifolium
+Calament velu - Clinopodium acinos subsp. acinos
+Petit calament - Clinopodium nepeta
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Clinopodium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clinopodium</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (8 mars 2012)[10] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (8 mars 2012) :
 Clinopodium abyssinicum (Benth.) Kuntze (1891)
 Clinopodium acinos (L.) Kuntze (1891)
 Clinopodium acutifolium (Benth.) Govaerts (1999)
